--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/BackToList.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/BackToList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC746681-BD34-49BA-956D-809996C6AA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B9D2A0-B832-44E1-A9B9-076E7ADF576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{70BB20E6-E7BA-4611-B173-A053706CCB5F}"/>
   </bookViews>
@@ -76,7 +76,7 @@
     <t>WaitForPageLoad</t>
   </si>
   <si>
-    <t>Select Agency in dropdown</t>
+    <t>Back to ListView</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
